--- a/DadosHistoricosColetados/Mapeamento lote 02.xlsx
+++ b/DadosHistoricosColetados/Mapeamento lote 02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="4"/>
+    <workbookView minimized="1" xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="9280.2016" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="545">
   <si>
     <t>1ª) 086ZE  </t>
   </si>
@@ -1767,6 +1767,9 @@
   </si>
   <si>
     <t>Instalação de película na CAE.</t>
+  </si>
+  <si>
+    <t>ATIVIDADE</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1968,6 +1971,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1976,7 +1990,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2093,15 +2107,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13531,9 +13548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13571,7 +13588,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13643,7 +13660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16729,8 +16746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16835,14 +16852,14 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -16855,14 +16872,14 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -16875,11 +16892,11 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1"/>
@@ -16945,6 +16962,9 @@
       <c r="F19" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="G19" s="46" t="s">
+        <v>544</v>
+      </c>
       <c r="I19" s="24" t="s">
         <v>541</v>
       </c>
@@ -17963,17 +17983,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="E20:E67">
     <cfRule type="colorScale" priority="1">
